--- a/app/webroot/uploads/CA13.xlsx
+++ b/app/webroot/uploads/CA13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>How to QA Pixels
 1.  Open Mozilla Firefox.  Search for HttpFox in Google, and download the extension.
@@ -81,10 +81,16 @@
     <t>&lt;img width="1" height="1" style="border:0" src="HTTP://bs.serving-sys.com/Serving/ActivityServer.bs?cn=as&amp;amp;ActivityID=748562&amp;amp;ns=1"/&gt;</t>
   </si>
   <si>
+    <t>748563</t>
+  </si>
+  <si>
+    <t>http://www.ibbm.com/cloud-computing/landing/urbancode-thank-you</t>
+  </si>
+  <si>
     <t>748562</t>
   </si>
   <si>
-    <t>http://www.ibbm.com/cloud-computing/landing/urbancode-thank-you</t>
+    <t>748564</t>
   </si>
 </sst>
 </file>
@@ -297,15 +303,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
+      <xdr:colOff>672840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,47 +326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10034280" y="1149120"/>
-          <a:ext cx="9661680" cy="2913480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10000440" y="7186320"/>
-          <a:ext cx="14966640" cy="3084840"/>
+          <a:off x="10061280" y="1140120"/>
+          <a:ext cx="9661320" cy="2913120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,14 +343,53 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>121680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
+      <xdr:colOff>609840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>179280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10027440" y="7177320"/>
+          <a:ext cx="14966280" cy="3084480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>148680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -398,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10027440" y="4287240"/>
-          <a:ext cx="15023880" cy="2571120"/>
+          <a:off x="10054440" y="4278240"/>
+          <a:ext cx="15023520" cy="2570760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,10 +904,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -960,6 +966,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
